--- a/Table/Table_xls/x循环任务/x循环任务对话配置.xlsx
+++ b/Table/Table_xls/x循环任务/x循环任务对话配置.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>id</t>
   </si>
@@ -148,12 +148,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -172,33 +172,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,16 +262,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,14 +279,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,28 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -285,24 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,15 +310,10 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -330,187 +325,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,35 +519,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,11 +543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +569,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,10 +601,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -626,148 +621,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -830,12 +825,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1162,16 +1152,17 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B23"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>

--- a/Table/Table_xls/x循环任务/x循环任务对话配置.xlsx
+++ b/Table/Table_xls/x循环任务/x循环任务对话配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -165,9 +165,85 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -179,13 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -195,60 +264,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,37 +301,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -301,16 +308,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,25 +325,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,157 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,45 +516,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,11 +536,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,11 +582,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +601,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -621,148 +621,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -826,6 +826,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1152,22 +1157,21 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="16.4259259259259" customWidth="1"/>
     <col min="2" max="2" width="127" customWidth="1"/>
   </cols>
   <sheetData>
